--- a/Documentacion/REGISTRO DE INSPECCIONES 2017.xlsx
+++ b/Documentacion/REGISTRO DE INSPECCIONES 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INSPECCIONES 2017" sheetId="2" r:id="rId1"/>
@@ -1260,30 +1260,99 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,77 +1374,62 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,173 +1437,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2252,84 +2252,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
     </row>
     <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
@@ -2340,8 +2340,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2350,102 +2350,102 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="139" t="s">
+      <c r="K9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="140"/>
-      <c r="M9" s="136" t="s">
+      <c r="L9" s="143"/>
+      <c r="M9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="136" t="s">
+      <c r="N9" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="136" t="s">
+      <c r="O9" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="136" t="s">
+      <c r="P9" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="136" t="s">
+      <c r="Q9" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="136" t="s">
+      <c r="R9" s="137" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="136" t="s">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="136" t="s">
+      <c r="L10" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
@@ -4769,6 +4769,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -4782,17 +4793,6 @@
     <mergeCell ref="C5:R5"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="J12">
@@ -4822,7 +4822,7 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -4841,81 +4841,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="40"/>
@@ -4927,49 +4927,49 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="159"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="154" t="s">
+      <c r="G9" s="163"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="163" t="s">
+      <c r="J9" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="164" t="s">
+      <c r="K9" s="153" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="162"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="42" t="s">
         <v>9</v>
       </c>
@@ -4979,16 +4979,16 @@
       <c r="H10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="165"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="154"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="162"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="51">
         <v>200</v>
       </c>
@@ -4998,9 +4998,9 @@
       <c r="H11" s="53">
         <v>200</v>
       </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="166"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="155"/>
     </row>
     <row r="12" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
@@ -5102,9 +5102,9 @@
       <c r="F19" s="68"/>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
     </row>
     <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="110"/>
@@ -5115,9 +5115,9 @@
       <c r="F20" s="68"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
     </row>
     <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="110"/>
@@ -5133,30 +5133,30 @@
       <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="147"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
       <c r="F22" s="68"/>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="146"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
       <c r="F23" s="68"/>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
     </row>
     <row r="24" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="110"/>
@@ -5323,9 +5323,9 @@
       <c r="F36" s="69"/>
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="110"/>
@@ -5380,30 +5380,30 @@
       <c r="K40" s="57"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="147"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
+      <c r="A41" s="170"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
       <c r="F41" s="70"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="146"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
       <c r="F42" s="70"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
     </row>
     <row r="43" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="110"/>
@@ -5440,9 +5440,9 @@
       <c r="F45" s="69"/>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="150"/>
     </row>
     <row r="46" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110"/>
@@ -5453,9 +5453,9 @@
       <c r="F46" s="69"/>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="150"/>
     </row>
     <row r="47" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="110"/>
@@ -5466,9 +5466,9 @@
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="H47" s="54"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="150"/>
     </row>
     <row r="48" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="110"/>
@@ -5666,11 +5666,11 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="147"/>
-      <c r="B63" s="171"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
+      <c r="A63" s="170"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
@@ -5679,11 +5679,11 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="146"/>
-      <c r="B64" s="172"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
@@ -6564,31 +6564,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H7"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A41:A42"/>
@@ -6605,6 +6580,31 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H7"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F38 F14:F35 F48:F131">
     <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="greaterThan">
@@ -6719,126 +6719,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="103"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="177"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="182" t="s">
+      <c r="F9" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="185" t="s">
+      <c r="G9" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="191" t="s">
+      <c r="H9" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="184" t="s">
+      <c r="I9" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="179" t="s">
+      <c r="J9" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="179" t="s">
+      <c r="K9" s="183" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="193"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="180"/>
       <c r="I11" s="107"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
     </row>
     <row r="12" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
@@ -6945,27 +6945,27 @@
       <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="147"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="186"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="189"/>
       <c r="I20" s="109"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="146"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="187"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="190"/>
       <c r="I21" s="110"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
@@ -7153,30 +7153,30 @@
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="147"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="177"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="191"/>
       <c r="I36" s="112"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="146"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="178"/>
+      <c r="A37" s="169"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="192"/>
       <c r="I37" s="121"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
     </row>
     <row r="38" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="110"/>
@@ -7387,11 +7387,11 @@
       <c r="K53" s="110"/>
     </row>
     <row r="54" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="147"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
       <c r="F54" s="108"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
@@ -7400,11 +7400,11 @@
       <c r="K54" s="110"/>
     </row>
     <row r="55" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="146"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
       <c r="F55" s="108"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
@@ -8229,6 +8229,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -8239,35 +8268,6 @@
     <mergeCell ref="B5:E7"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.13" bottom="0.28000000000000003" header="0" footer="0"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -8282,11 +8282,11 @@
   </sheetPr>
   <dimension ref="A2:P131"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:K11"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8307,195 +8307,195 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="211"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
+      <c r="A6" s="216"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
     </row>
     <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="211"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
     </row>
     <row r="8" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="225" t="s">
+      <c r="A9" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="227" t="s">
+      <c r="C9" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="157" t="s">
+      <c r="E9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="220" t="s">
+      <c r="G9" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="197" t="s">
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="200" t="s">
+      <c r="L9" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="223" t="s">
+      <c r="M9" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="224" t="s">
+      <c r="N9" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="179" t="s">
+      <c r="O9" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="179" t="s">
+      <c r="P9" s="183" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="221"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="199"/>
       <c r="H10" s="42" t="s">
         <v>9</v>
       </c>
@@ -8505,21 +8505,21 @@
       <c r="J10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="198"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="180"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="154"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="222"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="200"/>
       <c r="H11" s="51">
         <v>200</v>
       </c>
@@ -8529,12 +8529,12 @@
       <c r="J11" s="53">
         <v>200</v>
       </c>
-      <c r="K11" s="199"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
     </row>
     <row r="12" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74"/>
@@ -8573,40 +8573,40 @@
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="206"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="195"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="223"/>
     </row>
     <row r="15" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="207"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="78"/>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="196"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="224"/>
     </row>
     <row r="16" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74"/>
@@ -8673,10 +8673,10 @@
       <c r="H19" s="78"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
     </row>
@@ -8691,10 +8691,10 @@
       <c r="H20" s="78"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
     </row>
@@ -8717,38 +8717,38 @@
       <c r="P21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="206"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
       <c r="G22" s="76"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="214"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="220"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="207"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
+      <c r="A23" s="208"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
       <c r="G23" s="76"/>
       <c r="H23" s="78"/>
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="214"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="220"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
     </row>
@@ -8979,10 +8979,10 @@
       <c r="H36" s="83"/>
       <c r="I36" s="79"/>
       <c r="J36" s="79"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="201"/>
-      <c r="N36" s="201"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
     </row>
@@ -9059,38 +9059,38 @@
       <c r="P40" s="59"/>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="206"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="210"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
       <c r="G41" s="76"/>
       <c r="H41" s="84"/>
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="214"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="220"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
     </row>
     <row r="42" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="207"/>
-      <c r="B42" s="209"/>
-      <c r="C42" s="201"/>
-      <c r="D42" s="210"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="201"/>
+      <c r="A42" s="208"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
       <c r="G42" s="76"/>
       <c r="H42" s="84"/>
       <c r="I42" s="79"/>
       <c r="J42" s="79"/>
-      <c r="K42" s="201"/>
-      <c r="L42" s="201"/>
-      <c r="M42" s="201"/>
-      <c r="N42" s="214"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
     </row>
@@ -9141,10 +9141,10 @@
       <c r="H45" s="83"/>
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="201"/>
-      <c r="N45" s="201"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="215"/>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
     </row>
@@ -9159,10 +9159,10 @@
       <c r="H46" s="83"/>
       <c r="I46" s="79"/>
       <c r="J46" s="79"/>
-      <c r="K46" s="201"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="201"/>
-      <c r="N46" s="201"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="215"/>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
@@ -9177,10 +9177,10 @@
       <c r="H47" s="79"/>
       <c r="I47" s="79"/>
       <c r="J47" s="79"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="201"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="215"/>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
@@ -10638,25 +10638,29 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="B41:B42"/>
@@ -10673,29 +10677,25 @@
     <mergeCell ref="K45:N45"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="K36:N36"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="H37:H38 H48:H131 H14:H35">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
@@ -10816,16 +10816,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -10840,16 +10840,16 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -10864,16 +10864,16 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -10938,8 +10938,8 @@
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="229"/>
       <c r="E8" s="230"/>
       <c r="F8" s="20"/>
@@ -10948,8 +10948,8 @@
     </row>
     <row r="9" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="229"/>
       <c r="E9" s="230"/>
       <c r="F9" s="20"/>
@@ -10958,8 +10958,8 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="229"/>
       <c r="E10" s="230"/>
       <c r="F10" s="20"/>
@@ -10968,8 +10968,8 @@
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="229"/>
       <c r="E11" s="230"/>
       <c r="F11" s="20"/>
@@ -10978,8 +10978,8 @@
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="229"/>
       <c r="E12" s="230"/>
       <c r="F12" s="20"/>
@@ -10988,8 +10988,8 @@
     </row>
     <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="229"/>
       <c r="E13" s="230"/>
       <c r="F13" s="20"/>
@@ -11068,8 +11068,8 @@
     </row>
     <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="229"/>
       <c r="E21" s="230"/>
       <c r="F21" s="20"/>
@@ -11078,8 +11078,8 @@
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="229"/>
       <c r="E22" s="230"/>
       <c r="F22" s="20"/>
@@ -11088,8 +11088,8 @@
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="229"/>
       <c r="E23" s="230"/>
       <c r="F23" s="20"/>
@@ -11098,8 +11098,8 @@
     </row>
     <row r="24" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="231"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
       <c r="D24" s="229"/>
       <c r="E24" s="230"/>
       <c r="F24" s="20"/>
@@ -11108,8 +11108,8 @@
     </row>
     <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="232"/>
       <c r="D25" s="229"/>
       <c r="E25" s="230"/>
       <c r="F25" s="20"/>
@@ -11238,17 +11238,45 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B21:C21"/>
@@ -11265,45 +11293,17 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
